--- a/Rekomendasi_Stok_Abon_Ummi_FINAL.xlsx
+++ b/Rekomendasi_Stok_Abon_Ummi_FINAL.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sistem Rekomendasi Abon\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{089771C0-E645-4CA6-866D-D62FE205385C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Semua Rekomendasi" sheetId="1" r:id="rId1"/>
@@ -15,7 +21,7 @@
     <sheet name="Rekomendasi_2025-12" sheetId="6" r:id="rId6"/>
     <sheet name="Rekomendasi_2026-01" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -121,8 +127,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,6 +191,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -231,7 +245,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -263,9 +277,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -297,6 +329,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -472,14 +522,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E181"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -496,7 +549,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -507,13 +560,13 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -524,13 +577,13 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -541,13 +594,13 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -558,13 +611,13 @@
         <v>4</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -575,13 +628,13 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -592,13 +645,13 @@
         <v>3</v>
       </c>
       <c r="D7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -609,13 +662,13 @@
         <v>3</v>
       </c>
       <c r="D8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -626,13 +679,13 @@
         <v>3</v>
       </c>
       <c r="D9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -640,7 +693,7 @@
         <v>19</v>
       </c>
       <c r="C10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10">
         <v>3</v>
@@ -649,7 +702,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -657,7 +710,7 @@
         <v>20</v>
       </c>
       <c r="C11">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -666,7 +719,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -677,13 +730,13 @@
         <v>4</v>
       </c>
       <c r="D12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E12" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -694,13 +747,13 @@
         <v>1</v>
       </c>
       <c r="D13">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E13" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -708,7 +761,7 @@
         <v>22</v>
       </c>
       <c r="C14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14">
         <v>5</v>
@@ -717,7 +770,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -728,13 +781,13 @@
         <v>4</v>
       </c>
       <c r="D15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E15" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -745,13 +798,13 @@
         <v>2</v>
       </c>
       <c r="D16">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E16" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -762,13 +815,13 @@
         <v>2</v>
       </c>
       <c r="D17">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E17" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -785,7 +838,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -796,13 +849,13 @@
         <v>2</v>
       </c>
       <c r="D19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E19" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -813,13 +866,13 @@
         <v>2</v>
       </c>
       <c r="D20">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E20" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -830,13 +883,13 @@
         <v>2</v>
       </c>
       <c r="D21">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E21" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -847,13 +900,13 @@
         <v>4</v>
       </c>
       <c r="D22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E22" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -864,13 +917,13 @@
         <v>2</v>
       </c>
       <c r="D23">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E23" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -881,13 +934,13 @@
         <v>3</v>
       </c>
       <c r="D24">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E24" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -895,7 +948,7 @@
         <v>22</v>
       </c>
       <c r="C25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25">
         <v>5</v>
@@ -904,7 +957,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -915,13 +968,13 @@
         <v>2</v>
       </c>
       <c r="D26">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E26" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -932,13 +985,13 @@
         <v>3</v>
       </c>
       <c r="D27">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E27" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -949,13 +1002,13 @@
         <v>2</v>
       </c>
       <c r="D28">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E28" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -966,13 +1019,13 @@
         <v>2</v>
       </c>
       <c r="D29">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E29" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>5</v>
       </c>
@@ -983,13 +1036,13 @@
         <v>3</v>
       </c>
       <c r="D30">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>5</v>
       </c>
@@ -997,7 +1050,7 @@
         <v>20</v>
       </c>
       <c r="C31">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D31">
         <v>2</v>
@@ -1006,7 +1059,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>6</v>
       </c>
@@ -1023,7 +1076,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>6</v>
       </c>
@@ -1031,16 +1084,16 @@
         <v>12</v>
       </c>
       <c r="C33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E33" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>6</v>
       </c>
@@ -1057,7 +1110,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>6</v>
       </c>
@@ -1074,7 +1127,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>6</v>
       </c>
@@ -1091,7 +1144,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>6</v>
       </c>
@@ -1108,7 +1161,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>6</v>
       </c>
@@ -1116,16 +1169,16 @@
         <v>17</v>
       </c>
       <c r="C38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E38" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>6</v>
       </c>
@@ -1142,7 +1195,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>6</v>
       </c>
@@ -1150,16 +1203,16 @@
         <v>19</v>
       </c>
       <c r="C40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D40">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E40" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>6</v>
       </c>
@@ -1176,7 +1229,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>6</v>
       </c>
@@ -1193,7 +1246,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>6</v>
       </c>
@@ -1210,7 +1263,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>6</v>
       </c>
@@ -1227,7 +1280,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>6</v>
       </c>
@@ -1244,7 +1297,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>6</v>
       </c>
@@ -1261,7 +1314,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>6</v>
       </c>
@@ -1278,7 +1331,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>6</v>
       </c>
@@ -1286,16 +1339,16 @@
         <v>25</v>
       </c>
       <c r="C48">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E48" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>6</v>
       </c>
@@ -1312,7 +1365,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>6</v>
       </c>
@@ -1329,7 +1382,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>6</v>
       </c>
@@ -1346,7 +1399,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>6</v>
       </c>
@@ -1363,7 +1416,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>6</v>
       </c>
@@ -1380,7 +1433,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>6</v>
       </c>
@@ -1397,7 +1450,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>6</v>
       </c>
@@ -1414,7 +1467,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>6</v>
       </c>
@@ -1431,7 +1484,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>6</v>
       </c>
@@ -1448,7 +1501,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>6</v>
       </c>
@@ -1465,7 +1518,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>6</v>
       </c>
@@ -1482,7 +1535,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>6</v>
       </c>
@@ -1499,7 +1552,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>6</v>
       </c>
@@ -1516,7 +1569,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>7</v>
       </c>
@@ -1527,13 +1580,13 @@
         <v>3</v>
       </c>
       <c r="D62">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E62" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>7</v>
       </c>
@@ -1541,16 +1594,16 @@
         <v>12</v>
       </c>
       <c r="C63">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D63">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E63" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>7</v>
       </c>
@@ -1561,13 +1614,13 @@
         <v>4</v>
       </c>
       <c r="D64">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E64" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>7</v>
       </c>
@@ -1578,13 +1631,13 @@
         <v>5</v>
       </c>
       <c r="D65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E65" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>7</v>
       </c>
@@ -1595,13 +1648,13 @@
         <v>1</v>
       </c>
       <c r="D66">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E66" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>7</v>
       </c>
@@ -1612,13 +1665,13 @@
         <v>4</v>
       </c>
       <c r="D67">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E67" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>7</v>
       </c>
@@ -1626,16 +1679,16 @@
         <v>17</v>
       </c>
       <c r="C68">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D68">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E68" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>7</v>
       </c>
@@ -1646,13 +1699,13 @@
         <v>2</v>
       </c>
       <c r="D69">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E69" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>7</v>
       </c>
@@ -1663,13 +1716,13 @@
         <v>1</v>
       </c>
       <c r="D70">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E70" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>7</v>
       </c>
@@ -1677,16 +1730,16 @@
         <v>20</v>
       </c>
       <c r="C71">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D71">
         <v>3</v>
       </c>
       <c r="E71" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>7</v>
       </c>
@@ -1697,13 +1750,13 @@
         <v>4</v>
       </c>
       <c r="D72">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E72" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>7</v>
       </c>
@@ -1714,13 +1767,13 @@
         <v>1</v>
       </c>
       <c r="D73">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E73" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>7</v>
       </c>
@@ -1728,16 +1781,16 @@
         <v>22</v>
       </c>
       <c r="C74">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D74">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E74" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>7</v>
       </c>
@@ -1748,13 +1801,13 @@
         <v>1</v>
       </c>
       <c r="D75">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E75" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>7</v>
       </c>
@@ -1765,13 +1818,13 @@
         <v>2</v>
       </c>
       <c r="D76">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E76" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>7</v>
       </c>
@@ -1782,13 +1835,13 @@
         <v>1</v>
       </c>
       <c r="D77">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E77" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>7</v>
       </c>
@@ -1796,16 +1849,16 @@
         <v>25</v>
       </c>
       <c r="C78">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E78" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>7</v>
       </c>
@@ -1816,13 +1869,13 @@
         <v>1</v>
       </c>
       <c r="D79">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E79" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>7</v>
       </c>
@@ -1833,13 +1886,13 @@
         <v>2</v>
       </c>
       <c r="D80">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E80" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>7</v>
       </c>
@@ -1850,13 +1903,13 @@
         <v>1</v>
       </c>
       <c r="D81">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E81" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>7</v>
       </c>
@@ -1867,13 +1920,13 @@
         <v>5</v>
       </c>
       <c r="D82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E82" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>7</v>
       </c>
@@ -1884,13 +1937,13 @@
         <v>1</v>
       </c>
       <c r="D83">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E83" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>7</v>
       </c>
@@ -1901,13 +1954,13 @@
         <v>3</v>
       </c>
       <c r="D84">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E84" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>7</v>
       </c>
@@ -1915,16 +1968,16 @@
         <v>22</v>
       </c>
       <c r="C85">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D85">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E85" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>7</v>
       </c>
@@ -1935,13 +1988,13 @@
         <v>1</v>
       </c>
       <c r="D86">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E86" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>7</v>
       </c>
@@ -1952,13 +2005,13 @@
         <v>2</v>
       </c>
       <c r="D87">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E87" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>7</v>
       </c>
@@ -1969,13 +2022,13 @@
         <v>2</v>
       </c>
       <c r="D88">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E88" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>7</v>
       </c>
@@ -1986,13 +2039,13 @@
         <v>1</v>
       </c>
       <c r="D89">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E89" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>7</v>
       </c>
@@ -2003,13 +2056,13 @@
         <v>2</v>
       </c>
       <c r="D90">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E90" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>7</v>
       </c>
@@ -2017,16 +2070,16 @@
         <v>20</v>
       </c>
       <c r="C91">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D91">
         <v>3</v>
       </c>
       <c r="E91" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>8</v>
       </c>
@@ -2043,7 +2096,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>8</v>
       </c>
@@ -2060,7 +2113,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>8</v>
       </c>
@@ -2077,7 +2130,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>8</v>
       </c>
@@ -2094,7 +2147,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>8</v>
       </c>
@@ -2111,7 +2164,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>8</v>
       </c>
@@ -2128,7 +2181,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>8</v>
       </c>
@@ -2145,7 +2198,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>8</v>
       </c>
@@ -2162,7 +2215,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>8</v>
       </c>
@@ -2170,16 +2223,16 @@
         <v>19</v>
       </c>
       <c r="C100">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D100">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E100" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>8</v>
       </c>
@@ -2196,7 +2249,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>8</v>
       </c>
@@ -2213,7 +2266,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>8</v>
       </c>
@@ -2230,7 +2283,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>8</v>
       </c>
@@ -2238,16 +2291,16 @@
         <v>22</v>
       </c>
       <c r="C104">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D104">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E104" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>8</v>
       </c>
@@ -2255,16 +2308,16 @@
         <v>19</v>
       </c>
       <c r="C105">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D105">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E105" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>8</v>
       </c>
@@ -2281,7 +2334,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>8</v>
       </c>
@@ -2298,7 +2351,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>8</v>
       </c>
@@ -2306,7 +2359,7 @@
         <v>25</v>
       </c>
       <c r="C108">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D108">
         <v>1</v>
@@ -2315,7 +2368,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>8</v>
       </c>
@@ -2332,7 +2385,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>8</v>
       </c>
@@ -2349,7 +2402,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>8</v>
       </c>
@@ -2366,7 +2419,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>8</v>
       </c>
@@ -2383,7 +2436,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>8</v>
       </c>
@@ -2400,7 +2453,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>8</v>
       </c>
@@ -2417,7 +2470,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>8</v>
       </c>
@@ -2425,16 +2478,16 @@
         <v>22</v>
       </c>
       <c r="C115">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D115">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E115" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>8</v>
       </c>
@@ -2451,7 +2504,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>8</v>
       </c>
@@ -2468,7 +2521,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>8</v>
       </c>
@@ -2485,7 +2538,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>8</v>
       </c>
@@ -2502,7 +2555,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>8</v>
       </c>
@@ -2519,7 +2572,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>8</v>
       </c>
@@ -2536,7 +2589,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>9</v>
       </c>
@@ -2553,7 +2606,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>9</v>
       </c>
@@ -2561,16 +2614,16 @@
         <v>12</v>
       </c>
       <c r="C123">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D123">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E123" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>9</v>
       </c>
@@ -2578,16 +2631,16 @@
         <v>13</v>
       </c>
       <c r="C124">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D124">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E124" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>9</v>
       </c>
@@ -2604,7 +2657,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>9</v>
       </c>
@@ -2621,7 +2674,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>9</v>
       </c>
@@ -2638,7 +2691,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>9</v>
       </c>
@@ -2646,16 +2699,16 @@
         <v>17</v>
       </c>
       <c r="C128">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D128">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E128" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>9</v>
       </c>
@@ -2672,7 +2725,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>9</v>
       </c>
@@ -2680,16 +2733,16 @@
         <v>19</v>
       </c>
       <c r="C130">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D130">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E130" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>9</v>
       </c>
@@ -2697,16 +2750,16 @@
         <v>20</v>
       </c>
       <c r="C131">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D131">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E131" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>9</v>
       </c>
@@ -2723,7 +2776,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>9</v>
       </c>
@@ -2740,7 +2793,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>9</v>
       </c>
@@ -2757,7 +2810,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>9</v>
       </c>
@@ -2765,16 +2818,16 @@
         <v>19</v>
       </c>
       <c r="C135">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D135">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E135" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>9</v>
       </c>
@@ -2791,7 +2844,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>9</v>
       </c>
@@ -2808,7 +2861,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>9</v>
       </c>
@@ -2816,16 +2869,16 @@
         <v>25</v>
       </c>
       <c r="C138">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D138">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E138" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="139" spans="1:5">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>9</v>
       </c>
@@ -2842,7 +2895,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>9</v>
       </c>
@@ -2859,7 +2912,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>9</v>
       </c>
@@ -2876,7 +2929,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="142" spans="1:5">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>9</v>
       </c>
@@ -2893,7 +2946,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="143" spans="1:5">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>9</v>
       </c>
@@ -2910,7 +2963,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>9</v>
       </c>
@@ -2927,7 +2980,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="145" spans="1:5">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>9</v>
       </c>
@@ -2944,7 +2997,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="146" spans="1:5">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>9</v>
       </c>
@@ -2961,7 +3014,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="147" spans="1:5">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>9</v>
       </c>
@@ -2978,7 +3031,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="148" spans="1:5">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>9</v>
       </c>
@@ -2995,7 +3048,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="149" spans="1:5">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>9</v>
       </c>
@@ -3012,7 +3065,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="150" spans="1:5">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>9</v>
       </c>
@@ -3029,7 +3082,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="151" spans="1:5">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>9</v>
       </c>
@@ -3046,7 +3099,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="152" spans="1:5">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>10</v>
       </c>
@@ -3057,13 +3110,13 @@
         <v>3</v>
       </c>
       <c r="D152">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E152" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>10</v>
       </c>
@@ -3071,7 +3124,7 @@
         <v>12</v>
       </c>
       <c r="C153">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D153">
         <v>4</v>
@@ -3080,7 +3133,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="154" spans="1:5">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>10</v>
       </c>
@@ -3091,13 +3144,13 @@
         <v>4</v>
       </c>
       <c r="D154">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E154" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="155" spans="1:5">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>10</v>
       </c>
@@ -3105,7 +3158,7 @@
         <v>14</v>
       </c>
       <c r="C155">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D155">
         <v>1</v>
@@ -3114,7 +3167,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="156" spans="1:5">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>10</v>
       </c>
@@ -3125,13 +3178,13 @@
         <v>1</v>
       </c>
       <c r="D156">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E156" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="157" spans="1:5">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>10</v>
       </c>
@@ -3142,13 +3195,13 @@
         <v>4</v>
       </c>
       <c r="D157">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E157" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="158" spans="1:5">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>10</v>
       </c>
@@ -3156,7 +3209,7 @@
         <v>17</v>
       </c>
       <c r="C158">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D158">
         <v>3</v>
@@ -3165,7 +3218,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="159" spans="1:5">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>10</v>
       </c>
@@ -3176,13 +3229,13 @@
         <v>2</v>
       </c>
       <c r="D159">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E159" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="160" spans="1:5">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>10</v>
       </c>
@@ -3193,13 +3246,13 @@
         <v>1</v>
       </c>
       <c r="D160">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E160" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="161" spans="1:5">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>10</v>
       </c>
@@ -3210,13 +3263,13 @@
         <v>3</v>
       </c>
       <c r="D161">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E161" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>10</v>
       </c>
@@ -3227,13 +3280,13 @@
         <v>4</v>
       </c>
       <c r="D162">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E162" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="163" spans="1:5">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>10</v>
       </c>
@@ -3244,13 +3297,13 @@
         <v>1</v>
       </c>
       <c r="D163">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E163" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="164" spans="1:5">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>10</v>
       </c>
@@ -3258,7 +3311,7 @@
         <v>22</v>
       </c>
       <c r="C164">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D164">
         <v>3</v>
@@ -3267,7 +3320,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="165" spans="1:5">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>10</v>
       </c>
@@ -3278,13 +3331,13 @@
         <v>1</v>
       </c>
       <c r="D165">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E165" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="166" spans="1:5">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>10</v>
       </c>
@@ -3295,13 +3348,13 @@
         <v>2</v>
       </c>
       <c r="D166">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E166" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="167" spans="1:5">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>10</v>
       </c>
@@ -3312,13 +3365,13 @@
         <v>1</v>
       </c>
       <c r="D167">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E167" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="168" spans="1:5">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>10</v>
       </c>
@@ -3329,13 +3382,13 @@
         <v>5</v>
       </c>
       <c r="D168">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E168" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="169" spans="1:5">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>10</v>
       </c>
@@ -3346,13 +3399,13 @@
         <v>1</v>
       </c>
       <c r="D169">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E169" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="170" spans="1:5">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>10</v>
       </c>
@@ -3363,13 +3416,13 @@
         <v>2</v>
       </c>
       <c r="D170">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E170" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="171" spans="1:5">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>10</v>
       </c>
@@ -3380,13 +3433,13 @@
         <v>1</v>
       </c>
       <c r="D171">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E171" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="172" spans="1:5">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>10</v>
       </c>
@@ -3394,7 +3447,7 @@
         <v>14</v>
       </c>
       <c r="C172">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D172">
         <v>1</v>
@@ -3403,7 +3456,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="173" spans="1:5">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>10</v>
       </c>
@@ -3414,13 +3467,13 @@
         <v>1</v>
       </c>
       <c r="D173">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E173" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="174" spans="1:5">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>10</v>
       </c>
@@ -3431,13 +3484,13 @@
         <v>3</v>
       </c>
       <c r="D174">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E174" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>10</v>
       </c>
@@ -3445,7 +3498,7 @@
         <v>22</v>
       </c>
       <c r="C175">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D175">
         <v>3</v>
@@ -3454,7 +3507,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="176" spans="1:5">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>10</v>
       </c>
@@ -3465,13 +3518,13 @@
         <v>1</v>
       </c>
       <c r="D176">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E176" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="177" spans="1:5">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>10</v>
       </c>
@@ -3482,13 +3535,13 @@
         <v>2</v>
       </c>
       <c r="D177">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E177" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="178" spans="1:5">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>10</v>
       </c>
@@ -3499,13 +3552,13 @@
         <v>2</v>
       </c>
       <c r="D178">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E178" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="179" spans="1:5">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>10</v>
       </c>
@@ -3516,13 +3569,13 @@
         <v>1</v>
       </c>
       <c r="D179">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E179" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="180" spans="1:5">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>10</v>
       </c>
@@ -3533,13 +3586,13 @@
         <v>2</v>
       </c>
       <c r="D180">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E180" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="181" spans="1:5">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>10</v>
       </c>
@@ -3550,10 +3603,10 @@
         <v>3</v>
       </c>
       <c r="D181">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E181" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -3562,14 +3615,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3586,7 +3639,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -3603,7 +3656,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -3611,7 +3664,7 @@
         <v>20</v>
       </c>
       <c r="C3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -3620,7 +3673,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -3628,7 +3681,7 @@
         <v>20</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -3637,15 +3690,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5">
         <v>3</v>
@@ -3654,7 +3707,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -3665,13 +3718,13 @@
         <v>4</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -3682,30 +3735,30 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C8">
         <v>4</v>
       </c>
       <c r="D8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -3716,13 +3769,13 @@
         <v>4</v>
       </c>
       <c r="D9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -3733,47 +3786,47 @@
         <v>4</v>
       </c>
       <c r="D10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C11">
         <v>3</v>
       </c>
       <c r="D11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E11" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C12">
         <v>3</v>
       </c>
       <c r="D12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E12" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -3784,13 +3837,13 @@
         <v>3</v>
       </c>
       <c r="D13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -3801,13 +3854,13 @@
         <v>3</v>
       </c>
       <c r="D14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -3818,13 +3871,13 @@
         <v>3</v>
       </c>
       <c r="D15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E15" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -3835,13 +3888,13 @@
         <v>3</v>
       </c>
       <c r="D16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E16" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -3852,13 +3905,13 @@
         <v>3</v>
       </c>
       <c r="D17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E17" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -3866,7 +3919,7 @@
         <v>22</v>
       </c>
       <c r="C18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18">
         <v>5</v>
@@ -3875,15 +3928,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19">
         <v>5</v>
@@ -3892,41 +3945,41 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C20">
         <v>2</v>
       </c>
       <c r="D20">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E20" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C21">
         <v>2</v>
       </c>
       <c r="D21">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E21" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -3937,64 +3990,64 @@
         <v>2</v>
       </c>
       <c r="D22">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E22" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C23">
         <v>2</v>
       </c>
       <c r="D23">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E23" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C24">
         <v>2</v>
       </c>
       <c r="D24">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E24" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C25">
         <v>2</v>
       </c>
       <c r="D25">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E25" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -4005,30 +4058,30 @@
         <v>2</v>
       </c>
       <c r="D26">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E26" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C27">
         <v>2</v>
       </c>
       <c r="D27">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E27" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -4039,13 +4092,13 @@
         <v>2</v>
       </c>
       <c r="D28">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E28" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -4056,13 +4109,13 @@
         <v>2</v>
       </c>
       <c r="D29">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E29" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>5</v>
       </c>
@@ -4073,13 +4126,13 @@
         <v>2</v>
       </c>
       <c r="D30">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>5</v>
       </c>
@@ -4090,7 +4143,7 @@
         <v>1</v>
       </c>
       <c r="D31">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E31" t="s">
         <v>31</v>
@@ -4102,14 +4155,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4126,7 +4179,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -4143,7 +4196,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -4160,7 +4213,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -4177,12 +4230,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -4194,7 +4247,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -4211,47 +4264,47 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
         <v>13</v>
       </c>
-      <c r="C7">
-        <v>3</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="E7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8">
-        <v>3</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-      <c r="E8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
       <c r="C9">
         <v>3</v>
       </c>
@@ -4262,7 +4315,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -4279,12 +4332,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C11">
         <v>3</v>
@@ -4296,7 +4349,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -4313,7 +4366,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -4330,30 +4383,30 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>6</v>
       </c>
       <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" t="s">
         <v>23</v>
       </c>
-      <c r="C14">
-        <v>2</v>
-      </c>
-      <c r="D14">
-        <v>3</v>
-      </c>
-      <c r="E14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" t="s">
-        <v>19</v>
-      </c>
       <c r="C15">
         <v>2</v>
       </c>
@@ -4364,12 +4417,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C16">
         <v>2</v>
@@ -4381,7 +4434,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -4398,7 +4451,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -4415,24 +4468,24 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E19" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -4449,12 +4502,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -4466,7 +4519,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -4483,30 +4536,30 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>6</v>
       </c>
       <c r="B23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>4</v>
+      </c>
+      <c r="E23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" t="s">
         <v>19</v>
       </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23">
-        <v>4</v>
-      </c>
-      <c r="E23" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" t="s">
-        <v>6</v>
-      </c>
-      <c r="B24" t="s">
-        <v>21</v>
-      </c>
       <c r="C24">
         <v>1</v>
       </c>
@@ -4517,7 +4570,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -4534,7 +4587,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -4551,7 +4604,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -4568,7 +4621,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -4585,7 +4638,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -4602,7 +4655,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>6</v>
       </c>
@@ -4619,7 +4672,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>6</v>
       </c>
@@ -4642,14 +4695,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4666,15 +4719,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -4683,7 +4736,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -4694,21 +4747,21 @@
         <v>5</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -4717,7 +4770,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -4728,149 +4781,149 @@
         <v>4</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C6">
         <v>4</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C7">
         <v>4</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C8">
         <v>4</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C9">
         <v>4</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C11">
         <v>3</v>
       </c>
       <c r="D11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E11" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C12">
         <v>3</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E12" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C13">
         <v>3</v>
       </c>
       <c r="D13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -4881,13 +4934,13 @@
         <v>3</v>
       </c>
       <c r="D14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -4895,16 +4948,16 @@
         <v>12</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E15" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -4915,13 +4968,13 @@
         <v>2</v>
       </c>
       <c r="D16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E16" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -4932,13 +4985,13 @@
         <v>2</v>
       </c>
       <c r="D17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E17" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -4949,13 +5002,13 @@
         <v>2</v>
       </c>
       <c r="D18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E18" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -4966,13 +5019,13 @@
         <v>2</v>
       </c>
       <c r="D19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E19" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -4983,13 +5036,13 @@
         <v>2</v>
       </c>
       <c r="D20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E20" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -5000,13 +5053,13 @@
         <v>2</v>
       </c>
       <c r="D21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E21" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -5017,13 +5070,13 @@
         <v>1</v>
       </c>
       <c r="D22">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E22" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -5034,13 +5087,13 @@
         <v>1</v>
       </c>
       <c r="D23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E23" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -5051,13 +5104,13 @@
         <v>1</v>
       </c>
       <c r="D24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E24" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -5068,13 +5121,13 @@
         <v>1</v>
       </c>
       <c r="D25">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E25" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -5085,13 +5138,13 @@
         <v>1</v>
       </c>
       <c r="D26">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E26" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -5102,13 +5155,13 @@
         <v>1</v>
       </c>
       <c r="D27">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E27" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -5119,13 +5172,13 @@
         <v>1</v>
       </c>
       <c r="D28">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E28" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -5136,13 +5189,13 @@
         <v>1</v>
       </c>
       <c r="D29">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E29" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -5153,13 +5206,13 @@
         <v>1</v>
       </c>
       <c r="D30">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -5170,7 +5223,7 @@
         <v>1</v>
       </c>
       <c r="D31">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E31" t="s">
         <v>29</v>
@@ -5182,14 +5235,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5206,7 +5259,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -5214,7 +5267,7 @@
         <v>25</v>
       </c>
       <c r="C2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -5223,7 +5276,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -5240,7 +5293,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -5257,7 +5310,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -5274,12 +5327,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -5291,24 +5344,24 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -5316,16 +5369,16 @@
         <v>19</v>
       </c>
       <c r="C8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -5342,12 +5395,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C10">
         <v>4</v>
@@ -5359,41 +5412,41 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -5410,12 +5463,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C14">
         <v>3</v>
@@ -5427,7 +5480,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -5444,12 +5497,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C16">
         <v>3</v>
@@ -5461,12 +5514,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C17">
         <v>3</v>
@@ -5478,46 +5531,46 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E18" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E19" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C20">
         <v>2</v>
@@ -5529,12 +5582,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C21">
         <v>2</v>
@@ -5546,7 +5599,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -5563,12 +5616,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C23">
         <v>2</v>
@@ -5580,12 +5633,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>8</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C24">
         <v>2</v>
@@ -5597,12 +5650,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C25">
         <v>2</v>
@@ -5614,7 +5667,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -5631,12 +5684,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>8</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C27">
         <v>2</v>
@@ -5648,7 +5701,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -5665,7 +5718,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>8</v>
       </c>
@@ -5682,7 +5735,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -5699,7 +5752,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>8</v>
       </c>
@@ -5722,14 +5775,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5746,7 +5799,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -5763,12 +5816,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C3">
         <v>5</v>
@@ -5780,29 +5833,29 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -5814,12 +5867,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -5831,7 +5884,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -5848,29 +5901,29 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C9">
         <v>3</v>
@@ -5882,7 +5935,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -5899,12 +5952,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C11">
         <v>3</v>
@@ -5916,12 +5969,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C12">
         <v>3</v>
@@ -5933,24 +5986,24 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -5967,12 +6020,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C15">
         <v>2</v>
@@ -5984,12 +6037,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C16">
         <v>2</v>
@@ -6001,12 +6054,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C17">
         <v>2</v>
@@ -6018,12 +6071,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C18">
         <v>2</v>
@@ -6035,46 +6088,46 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E19" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E20" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -6086,12 +6139,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -6103,12 +6156,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -6120,12 +6173,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>9</v>
       </c>
       <c r="B24" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -6137,7 +6190,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -6154,7 +6207,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -6171,7 +6224,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>9</v>
       </c>
@@ -6188,7 +6241,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>9</v>
       </c>
@@ -6205,7 +6258,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -6222,7 +6275,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>9</v>
       </c>
@@ -6239,7 +6292,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>9</v>
       </c>
@@ -6262,14 +6315,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6286,7 +6339,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -6294,7 +6347,7 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -6303,15 +6356,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -6320,24 +6373,24 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C4">
         <v>5</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -6348,30 +6401,30 @@
         <v>4</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C6">
         <v>4</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -6382,13 +6435,13 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -6396,7 +6449,7 @@
         <v>17</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8">
         <v>3</v>
@@ -6405,15 +6458,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9">
         <v>3</v>
@@ -6422,7 +6475,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -6430,7 +6483,7 @@
         <v>22</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10">
         <v>3</v>
@@ -6439,41 +6492,41 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C11">
         <v>3</v>
       </c>
       <c r="D11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C12">
         <v>3</v>
       </c>
       <c r="D12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -6484,13 +6537,13 @@
         <v>3</v>
       </c>
       <c r="D13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -6501,13 +6554,13 @@
         <v>3</v>
       </c>
       <c r="D14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -6515,7 +6568,7 @@
         <v>12</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15">
         <v>4</v>
@@ -6524,7 +6577,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -6535,13 +6588,13 @@
         <v>2</v>
       </c>
       <c r="D16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E16" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -6552,13 +6605,13 @@
         <v>2</v>
       </c>
       <c r="D17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E17" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -6569,13 +6622,13 @@
         <v>2</v>
       </c>
       <c r="D18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E18" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -6586,13 +6639,13 @@
         <v>2</v>
       </c>
       <c r="D19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E19" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -6603,13 +6656,13 @@
         <v>2</v>
       </c>
       <c r="D20">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E20" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -6620,13 +6673,13 @@
         <v>2</v>
       </c>
       <c r="D21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E21" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -6637,13 +6690,13 @@
         <v>1</v>
       </c>
       <c r="D22">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E22" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -6654,13 +6707,13 @@
         <v>1</v>
       </c>
       <c r="D23">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E23" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -6671,13 +6724,13 @@
         <v>1</v>
       </c>
       <c r="D24">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E24" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -6688,13 +6741,13 @@
         <v>1</v>
       </c>
       <c r="D25">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E25" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -6705,13 +6758,13 @@
         <v>1</v>
       </c>
       <c r="D26">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E26" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>10</v>
       </c>
@@ -6722,13 +6775,13 @@
         <v>1</v>
       </c>
       <c r="D27">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E27" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -6739,13 +6792,13 @@
         <v>1</v>
       </c>
       <c r="D28">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E28" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -6756,13 +6809,13 @@
         <v>1</v>
       </c>
       <c r="D29">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E29" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -6773,13 +6826,13 @@
         <v>1</v>
       </c>
       <c r="D30">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>10</v>
       </c>
@@ -6790,7 +6843,7 @@
         <v>1</v>
       </c>
       <c r="D31">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E31" t="s">
         <v>29</v>
